--- a/FME/filtros.xlsx
+++ b/FME/filtros.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t xml:space="preserve">Entradas da arquitetura</t>
   </si>
@@ -30,6 +30,9 @@
     <t xml:space="preserve">amostras entradas</t>
   </si>
   <si>
+    <t xml:space="preserve">total</t>
+  </si>
+  <si>
     <t xml:space="preserve">A0</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
   </si>
   <si>
     <t xml:space="preserve">down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somadores</t>
   </si>
 </sst>
 </file>
@@ -157,7 +163,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -166,8 +172,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -187,25 +201,127 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C7:AD12"/>
+  <dimension ref="B1:AD14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.04858299595142"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="11" min="4" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="16" style="1" width="2.83400809716599"/>
+    <col collapsed="false" hidden="false" max="25" min="16" style="1" width="2.78542510121457"/>
     <col collapsed="false" hidden="false" max="31" min="26" style="1" width="3.64372469635628"/>
     <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
+      <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0"/>
+      <c r="Z4" s="0"/>
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0"/>
+      <c r="AD4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
+      <c r="Z5" s="0"/>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0"/>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0"/>
+      <c r="V6" s="0"/>
+      <c r="W6" s="0"/>
+      <c r="X6" s="0"/>
+      <c r="Y6" s="0"/>
+      <c r="Z6" s="0"/>
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="0"/>
+      <c r="AC6" s="0"/>
+      <c r="AD6" s="0"/>
+    </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P7" s="2" t="s">
         <v>0</v>
@@ -223,6 +339,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
+      <c r="AD7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="2" t="s">
@@ -235,81 +352,99 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
+      <c r="L8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="W9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>-1</v>
@@ -338,7 +473,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>-1</v>
@@ -367,7 +502,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>-1</v>
@@ -394,10 +529,45 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <f aca="false">SUM(D14:K14)</f>
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="P7:AC7"/>
     <mergeCell ref="D8:K8"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>

--- a/FME/filtros.xlsx
+++ b/FME/filtros.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Plan2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Plan3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="implementar" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Plan3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Plan1" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +22,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+  <si>
+    <t xml:space="preserve">DCT-Based Sharp(Luma)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lagrange-Based</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCT-Based Sharp(Luma e chroma)</t>
+  </si>
   <si>
     <t xml:space="preserve">Entradas da arquitetura</t>
   </si>
@@ -94,8 +115,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -163,16 +185,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -180,7 +214,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -201,22 +235,1130 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="C3:K65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="1"/>
+      <c r="D6" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>-24</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>-19</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="1"/>
+      <c r="D7" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>-23</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>-23</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>-19</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>-24</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>-20</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:K3"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B6:J45"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>-11</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>-19</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>-16</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>-19</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>-19</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="5"/>
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="5"/>
+      <c r="C17" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>-17</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>-23</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>-24</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>-19</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1"/>
+      <c r="C23" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>-24</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>-21</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>-23</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>-23</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>-21</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>-24</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>-19</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>-24</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>-23</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>-20</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>-17</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="B15:J15"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B1:AD14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="11" min="4" style="0" width="3.31983805668016"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="3.31983805668016"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.39271255060729"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="16" style="1" width="2.78542510121457"/>
-    <col collapsed="false" hidden="false" max="31" min="26" style="1" width="3.64372469635628"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="2" width="2.78542510121457"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="3.96356275303644"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="3.8582995951417"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="2.78542510121457"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="3.64372469635628"/>
+    <col collapsed="false" hidden="false" max="25" min="22" style="2" width="2.78542510121457"/>
+    <col collapsed="false" hidden="false" max="31" min="26" style="2" width="3.64372469635628"/>
     <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -323,37 +1465,37 @@
       <c r="AD6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
+      <c r="P7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
       <c r="AD7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3" t="s">
-        <v>2</v>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="P8" s="0"/>
       <c r="Q8" s="0"/>
@@ -372,79 +1514,79 @@
       <c r="AD8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W9" s="1" t="s">
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Q9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="R9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="S9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="T9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="U9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="V9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="1" t="s">
+      <c r="W9" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>-1</v>
@@ -470,10 +1612,18 @@
       <c r="K10" s="0" t="n">
         <v>-1</v>
       </c>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="0"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>-1</v>
@@ -499,10 +1649,18 @@
       <c r="K11" s="0" t="n">
         <v>-1</v>
       </c>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>-1</v>
@@ -528,12 +1686,30 @@
       <c r="K12" s="0" t="n">
         <v>-1</v>
       </c>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="U13" s="0"/>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="4"/>
+      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
@@ -559,9 +1735,17 @@
         <v>0</v>
       </c>
       <c r="L14" s="0" t="n">
-        <f aca="false">SUM(D14:K14)</f>
+        <f aca="false">SUM(Plan1!D14:K14)</f>
         <v>14</v>
       </c>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="0"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -577,56 +1761,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>